--- a/refs/heads/rc2/StructureDefinition-SVC-QR-UVCI.xlsx
+++ b/refs/heads/rc2/StructureDefinition-SVC-QR-UVCI.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="139">
   <si>
     <t>Path</t>
   </si>
@@ -360,7 +360,10 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Date of birth of SVC holder</t>
+    <t>Date of birth of the [SVC Patient](http://hl7.org/fhir/R4/StructureDefinition-svc-patient.html), if provided</t>
+  </si>
+  <si>
+    <t>2005-10-04</t>
   </si>
   <si>
     <t>SVC-QR-UVCI.digitalid</t>
@@ -372,22 +375,31 @@
     <t>Identifier of the [SVC Composition](http://hl7.org/fhir/R4/StructureDefinition-svc-composition.html) that represents the Digital SVC Card</t>
   </si>
   <si>
+    <t>h1dZ75FMdY9EQQjE64O4</t>
+  </si>
+  <si>
     <t>SVC-QR-UVCI.name</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Name of SVC holder</t>
+    <t>Name of the [SVC Patient](http://hl7.org/fhir/R4/StructureDefinition-svc-patient.html), if provided</t>
+  </si>
+  <si>
+    <t>Felix Cat</t>
   </si>
   <si>
     <t>SVC-QR-UVCI.paperid</t>
   </si>
   <si>
-    <t>Paper SVC Composition Identifier</t>
-  </si>
-  <si>
-    <t>Identifier of the [SVC Composition](http://hl7.org/fhir/R4/StructureDefinition-svc-composition.html) that represents the Paper SVC Card</t>
+    <t>Paper SVC Bundle Identifier</t>
+  </si>
+  <si>
+    <t>Identifier of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bunclde.html) that represents the Paper SVC Card</t>
+  </si>
+  <si>
+    <t>bMlJkAt0V92RYhhG3fNt</t>
   </si>
   <si>
     <t>SVC-QR-UVCI.patientid</t>
@@ -396,25 +408,46 @@
     <t>Paper SVC Patient Identifier</t>
   </si>
   <si>
-    <t>Identifier of the [SVC Patient](http://hl7.org/fhir/R4/StructureDefinition-svc-patient.html) that represents the Paper SVC Card</t>
+    <t>Identifier of the [SVC Patient](http://hl7.org/fhir/R4/StructureDefinition-svc-patient.html), if provided</t>
+  </si>
+  <si>
+    <t>NMCZ8B1KwsMgVo64bDn2</t>
+  </si>
+  <si>
+    <t>SVC-QR-UVCI.pha</t>
+  </si>
+  <si>
+    <t>Public Health Authority</t>
+  </si>
+  <si>
+    <t>ID of the Public Health Authority</t>
+  </si>
+  <si>
+    <t>cvm6wAX7QCop8ueK7vkPYp</t>
   </si>
   <si>
     <t>SVC-QR-UVCI.signature</t>
   </si>
   <si>
-    <t xml:space="preserve">SVC Signature </t>
+    <t>SVC Signature</t>
   </si>
   <si>
     <t>Signature of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) using a PHA's DSC</t>
   </si>
   <si>
+    <t>SflKxwRJSMeKKF2QT4fwpMeJf36POk6yJV_adQssw5c</t>
+  </si>
+  <si>
     <t>SVC-QR-UVCI.version</t>
   </si>
   <si>
-    <t>SVC Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) </t>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Version/type of the [SVC Compostion](http://hl7.org/fhir/R4/StructureDefinition-svc-composition.html) document</t>
+  </si>
+  <si>
+    <t>RC-2-draft</t>
   </si>
 </sst>
 </file>
@@ -563,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>37</v>
@@ -1738,7 +1771,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1764,10 +1797,10 @@
         <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1782,7 +1815,7 @@
         <v>37</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>37</v>
@@ -1818,7 +1851,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1838,7 +1871,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1864,10 +1897,10 @@
         <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1882,7 +1915,7 @@
         <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>37</v>
@@ -1918,7 +1951,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1938,7 +1971,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1964,10 +1997,10 @@
         <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1982,7 +2015,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -2018,7 +2051,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2038,7 +2071,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2064,10 +2097,10 @@
         <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2082,7 +2115,7 @@
         <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>37</v>
@@ -2118,7 +2151,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2138,7 +2171,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2161,13 +2194,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2182,7 +2215,7 @@
         <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>37</v>
@@ -2218,7 +2251,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2238,7 +2271,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2264,10 +2297,10 @@
         <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2282,7 +2315,7 @@
         <v>37</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>37</v>
@@ -2318,7 +2351,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2333,11 +2366,111 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2347,7 +2480,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
